--- a/DAB_Model/DualActiveBridgeCalc.xlsx
+++ b/DAB_Model/DualActiveBridgeCalc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nomadtech-my.sharepoint.com/personal/rui_mendes_nomadtech_eu/Documents/Documentos/WorkingPapers/DAB_Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{AAB0306D-0291-42EA-B146-0A75E80FBEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE6B76C-04AF-45EE-B18D-6595BD37F563}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{AAB0306D-0291-42EA-B146-0A75E80FBEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87372505-335E-45C8-B5F7-04234FA8270D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E697FA36-17E1-4D2A-AD77-263D6C354BA6}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
